--- a/doc/数据融合中心 数据服务API2(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API2(更新中).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A126A-8E3D-4BFF-9467-CF241F71EEE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="数据导入" sheetId="8" r:id="rId11"/>
     <sheet name="Temp" sheetId="9" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="332">
   <si>
     <t>username</t>
   </si>
@@ -1610,11 +1609,15 @@
     <t>系统配置数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>执行成功返回suc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2584,250 +2587,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2854,6 +2614,249 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3139,80 +3142,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="32.08203125" customWidth="1"/>
     <col min="8" max="8" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+    <row r="1" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-    </row>
-    <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="125" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="G3" s="131" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+      <c r="G3" s="130" t="s">
         <v>110</v>
       </c>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="120" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="132" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="G4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="G4" s="131"/>
       <c r="H4" s="52"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="120"/>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="132"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="G5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="G5" s="131"/>
       <c r="H5" s="52"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="130"/>
-      <c r="G6" s="132"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="142"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="G6" s="131"/>
       <c r="H6" s="52"/>
     </row>
-    <row r="7" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="120" t="s">
+    <row r="7" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3224,11 +3227,11 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="132"/>
+      <c r="G7" s="131"/>
       <c r="H7" s="52"/>
     </row>
-    <row r="8" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="120"/>
+    <row r="8" spans="2:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="B8" s="132"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3238,11 +3241,11 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="132"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="52"/>
     </row>
-    <row r="9" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="120"/>
+    <row r="9" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B9" s="132"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -3252,33 +3255,33 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="132"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="122" t="s">
+    <row r="10" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="124"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="125" t="s">
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="137"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="138"/>
+    </row>
+    <row r="14" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="47" t="s">
         <v>6</v>
       </c>
@@ -3292,19 +3295,19 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
       <c r="D17" s="81"/>
@@ -3312,21 +3315,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" location="数据结构说明_用户数据" xr:uid="{E89A6834-9D52-48C2-8B89-3D2199F474BF}"/>
+    <hyperlink ref="E14" r:id="rId1" location="数据结构说明_用户数据"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3334,45 +3337,45 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F12133-6522-4FD6-BDD7-D45B2101BAE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F69"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C28" sqref="C28:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="125" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="133" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="45"/>
       <c r="C4" s="7"/>
       <c r="D4" s="32"/>
       <c r="E4" s="60"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
@@ -3386,59 +3389,59 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
       <c r="D6" s="84"/>
       <c r="E6" s="85"/>
     </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="122" t="s">
+    <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="124"/>
-    </row>
-    <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="125" t="s">
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="141"/>
+    </row>
+    <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="127"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="146" t="s">
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="170" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="168" t="s">
+      <c r="D10" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="169"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="148"/>
+      <c r="E10" s="203"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="172"/>
       <c r="C11" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="170" t="s">
+      <c r="D11" s="204" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="171"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="136"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="119" t="s">
+      <c r="E11" s="205"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="159"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="137" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3451,8 +3454,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="119"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="137"/>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
@@ -3463,8 +3466,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="119"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="137"/>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
@@ -3475,8 +3478,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="119"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="137"/>
       <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
@@ -3487,8 +3490,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="119"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="137"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
@@ -3499,8 +3502,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="119"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="137"/>
       <c r="C18" s="44" t="s">
         <v>172</v>
       </c>
@@ -3511,13 +3514,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="7"/>
       <c r="D19" s="32"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>6</v>
       </c>
@@ -3531,25 +3534,25 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="122" t="s">
+    <row r="22" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="125" t="s">
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="133" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="119" t="s">
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="135"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="137" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="46" t="s">
@@ -3562,8 +3565,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="119"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="137"/>
       <c r="C26" s="100" t="s">
         <v>103</v>
       </c>
@@ -3574,14 +3577,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="104"/>
       <c r="C27" s="102"/>
       <c r="D27" s="102"/>
       <c r="E27" s="105"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="119" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="100" t="s">
@@ -3590,8 +3593,8 @@
       <c r="D28" s="9"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="119"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="137"/>
       <c r="C29" s="100" t="s">
         <v>69</v>
       </c>
@@ -3602,8 +3605,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="119"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="137"/>
       <c r="C30" s="100" t="s">
         <v>70</v>
       </c>
@@ -3614,8 +3617,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="119"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="137"/>
       <c r="C31" s="100" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3629,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="119"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="137"/>
       <c r="C32" s="100" t="s">
         <v>72</v>
       </c>
@@ -3638,8 +3641,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="119"/>
+    <row r="33" spans="2:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="B33" s="137"/>
       <c r="C33" s="100" t="s">
         <v>74</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="145"/>
       <c r="C34" s="15" t="s">
         <v>73</v>
@@ -3662,68 +3665,68 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="36"/>
       <c r="E35" s="37"/>
     </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="36"/>
       <c r="E36" s="37"/>
     </row>
-    <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="122" t="s">
+    <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="124"/>
-    </row>
-    <row r="38" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="158" t="s">
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="141"/>
+    </row>
+    <row r="38" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="176" t="s">
         <v>255</v>
       </c>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="127"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="81"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="119" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="137" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="168" t="s">
+      <c r="D39" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="169"/>
+      <c r="E39" s="203"/>
       <c r="F39" s="81"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="119"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="137"/>
       <c r="C40" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="D40" s="134" t="s">
+      <c r="D40" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="135"/>
+      <c r="E40" s="158"/>
       <c r="F40" s="81"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="136"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="138"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="159"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="161"/>
       <c r="F41" s="81"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="119" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="137" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="44" t="s">
@@ -3737,8 +3740,8 @@
       </c>
       <c r="F42" s="81"/>
     </row>
-    <row r="43" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="119"/>
+    <row r="43" spans="2:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="B43" s="137"/>
       <c r="C43" s="44" t="s">
         <v>204</v>
       </c>
@@ -3750,8 +3753,8 @@
       </c>
       <c r="F43" s="86"/>
     </row>
-    <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="119"/>
+    <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="137"/>
       <c r="C44" s="44" t="s">
         <v>240</v>
       </c>
@@ -3763,8 +3766,8 @@
       </c>
       <c r="F44" s="86"/>
     </row>
-    <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="119"/>
+    <row r="45" spans="2:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="B45" s="137"/>
       <c r="C45" s="44" t="s">
         <v>208</v>
       </c>
@@ -3776,14 +3779,14 @@
       </c>
       <c r="F45" s="81"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="143"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="144"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="119" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="166"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="167"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="44" t="s">
@@ -3796,7 +3799,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="145"/>
       <c r="C48" s="15" t="s">
         <v>67</v>
@@ -3808,43 +3811,43 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="36"/>
       <c r="E49" s="37"/>
     </row>
-    <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="36"/>
       <c r="E50" s="37"/>
     </row>
-    <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="172" t="s">
+    <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="173"/>
-      <c r="D51" s="173"/>
-      <c r="E51" s="174"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="175" t="s">
+      <c r="C51" s="191"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="192"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="193" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="177"/>
-    </row>
-    <row r="53" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="181" t="s">
+      <c r="C52" s="194"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="195"/>
+    </row>
+    <row r="53" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="199" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="182"/>
-      <c r="D53" s="182"/>
-      <c r="E53" s="183"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="200"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="201"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="17" t="s">
         <v>16</v>
       </c>
@@ -3858,46 +3861,46 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="26"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
       <c r="E55" s="27"/>
     </row>
-    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="178" t="s">
+      <c r="C56" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="179"/>
-      <c r="E56" s="180"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="197"/>
+      <c r="E56" s="198"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="172" t="s">
+    <row r="58" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="173"/>
-      <c r="D59" s="173"/>
-      <c r="E59" s="174"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="175" t="s">
+      <c r="C59" s="191"/>
+      <c r="D59" s="191"/>
+      <c r="E59" s="192"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="193" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
-      <c r="E60" s="177"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="194"/>
+      <c r="D60" s="194"/>
+      <c r="E60" s="195"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="17" t="s">
         <v>16</v>
       </c>
@@ -3911,14 +3914,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="26"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="27"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="119" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3931,8 +3934,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="119"/>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="137"/>
       <c r="C64" s="2" t="s">
         <v>95</v>
       </c>
@@ -3943,8 +3946,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="146"/>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="170"/>
       <c r="C65" s="30" t="s">
         <v>67</v>
       </c>
@@ -3953,8 +3956,8 @@
       </c>
       <c r="E65" s="31"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="146"/>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="170"/>
       <c r="C66" s="30" t="s">
         <v>58</v>
       </c>
@@ -3965,8 +3968,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="146"/>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="170"/>
       <c r="C67" s="30" t="s">
         <v>56</v>
       </c>
@@ -3977,8 +3980,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="146"/>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="170"/>
       <c r="C68" s="30" t="s">
         <v>57</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="145"/>
       <c r="C69" s="15" t="s">
         <v>96</v>
@@ -4003,15 +4006,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B51:E51"/>
@@ -4022,16 +4026,15 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B53:E53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4040,96 +4043,96 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01CCA0E-2E7A-4B8E-9E4A-ABE08AE5322B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E73"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="122" t="s">
+    <row r="2" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="139" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="124"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="125" t="s">
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="135"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="96" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="169"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="119"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="121"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="119" t="s">
+      <c r="E5" s="203"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="137"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="138"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="137" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="157" t="s">
+      <c r="D7" s="175" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="159"/>
-    </row>
-    <row r="8" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="119"/>
+      <c r="E7" s="177"/>
+    </row>
+    <row r="8" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="137"/>
       <c r="C8" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="D8" s="157" t="s">
+      <c r="D8" s="175" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="159"/>
-    </row>
-    <row r="9" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="119"/>
+      <c r="E8" s="177"/>
+    </row>
+    <row r="9" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="137"/>
       <c r="C9" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="D9" s="157" t="s">
+      <c r="D9" s="175" t="s">
         <v>268</v>
       </c>
-      <c r="E9" s="159"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="177"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="96"/>
       <c r="C10" s="7"/>
       <c r="D10" s="98"/>
       <c r="E10" s="97"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="119" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -4142,8 +4145,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="119"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="137"/>
       <c r="C12" s="95" t="s">
         <v>272</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="145"/>
       <c r="C13" s="109" t="s">
         <v>269</v>
@@ -4166,77 +4169,77 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="122" t="s">
+    <row r="15" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="125" t="s">
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="133" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="135"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="99" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="168" t="s">
+      <c r="D18" s="202" t="s">
         <v>277</v>
       </c>
-      <c r="E18" s="169"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="119" t="s">
+      <c r="E18" s="203"/>
+    </row>
+    <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="137"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="138"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="137" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="175" t="s">
         <v>281</v>
       </c>
-      <c r="E20" s="159"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="119"/>
+      <c r="E20" s="177"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="137"/>
       <c r="C21" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="157"/>
-      <c r="E21" s="159"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="119"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="177"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="137"/>
       <c r="C22" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="157"/>
-      <c r="E22" s="159"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="175"/>
+      <c r="E22" s="177"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="99"/>
       <c r="C23" s="7"/>
       <c r="D23" s="107"/>
       <c r="E23" s="108"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="146" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="170" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="100" t="s">
@@ -4249,8 +4252,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="147"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="171"/>
       <c r="C25" s="100" t="s">
         <v>69</v>
       </c>
@@ -4261,8 +4264,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="147"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="171"/>
       <c r="C26" s="100" t="s">
         <v>70</v>
       </c>
@@ -4273,8 +4276,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="147"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="171"/>
       <c r="C27" s="100" t="s">
         <v>71</v>
       </c>
@@ -4285,8 +4288,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="147"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="171"/>
       <c r="C28" s="100" t="s">
         <v>72</v>
       </c>
@@ -4297,8 +4300,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="147"/>
+    <row r="29" spans="2:5" ht="91" x14ac:dyDescent="0.3">
+      <c r="B29" s="171"/>
       <c r="C29" s="100" t="s">
         <v>74</v>
       </c>
@@ -4309,8 +4312,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="147"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="171"/>
       <c r="C30" s="100" t="s">
         <v>73</v>
       </c>
@@ -4321,8 +4324,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="147"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="171"/>
       <c r="C31" s="100" t="s">
         <v>282</v>
       </c>
@@ -4333,8 +4336,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="147"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="171"/>
       <c r="C32" s="100" t="s">
         <v>285</v>
       </c>
@@ -4345,8 +4348,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="160"/>
+    <row r="33" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="184"/>
       <c r="C33" s="116" t="s">
         <v>287</v>
       </c>
@@ -4357,42 +4360,42 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="122" t="s">
+    <row r="35" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="139" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="124"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="125" t="s">
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="141"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="133" t="s">
         <v>291</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="127"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="135"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="99" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="168" t="s">
+      <c r="D38" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="169"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="119"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="121"/>
-    </row>
-    <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="203"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="137"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="138"/>
+    </row>
+    <row r="40" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="106" t="s">
         <v>6</v>
       </c>
@@ -4406,42 +4409,42 @@
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="122" t="s">
+    <row r="42" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="124"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="125" t="s">
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="141"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="133" t="s">
         <v>294</v>
       </c>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="127"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="135"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="99" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="168" t="s">
+      <c r="D45" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="169"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="121"/>
-    </row>
-    <row r="47" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="203"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="137"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="138"/>
+    </row>
+    <row r="47" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="106" t="s">
         <v>6</v>
       </c>
@@ -4455,52 +4458,52 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="122" t="s">
+    <row r="49" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="139" t="s">
         <v>298</v>
       </c>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="124"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="125" t="s">
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="141"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="133" t="s">
         <v>299</v>
       </c>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="127"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="146" t="s">
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="135"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="170" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="168" t="s">
+      <c r="D52" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="169"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="148"/>
+      <c r="E52" s="203"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="172"/>
       <c r="C53" s="100" t="s">
         <v>300</v>
       </c>
-      <c r="D53" s="170" t="s">
+      <c r="D53" s="204" t="s">
         <v>301</v>
       </c>
-      <c r="E53" s="171"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="119"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="121"/>
-    </row>
-    <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="205"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="137"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="138"/>
+    </row>
+    <row r="55" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="106" t="s">
         <v>6</v>
       </c>
@@ -4514,43 +4517,43 @@
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="122" t="s">
+    <row r="57" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="139" t="s">
         <v>304</v>
       </c>
-      <c r="C58" s="123"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="124"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="125" t="s">
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="141"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="133" t="s">
         <v>305</v>
       </c>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="127"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="135"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="99" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="168" t="s">
+      <c r="D60" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="169"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="119"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="121"/>
-    </row>
-    <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="119" t="s">
+      <c r="E60" s="203"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="137"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="138"/>
+    </row>
+    <row r="62" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="137" t="s">
         <v>306</v>
       </c>
       <c r="C62" s="15" t="s">
@@ -4563,8 +4566,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="119"/>
+    <row r="63" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="137"/>
       <c r="C63" s="15" t="s">
         <v>312</v>
       </c>
@@ -4575,8 +4578,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="119"/>
+    <row r="64" spans="2:5" ht="117.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="137"/>
       <c r="C64" s="15" t="s">
         <v>313</v>
       </c>
@@ -4587,13 +4590,13 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="114"/>
       <c r="C65" s="100"/>
       <c r="D65" s="100"/>
       <c r="E65" s="101"/>
     </row>
-    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="106" t="s">
         <v>6</v>
       </c>
@@ -4607,42 +4610,42 @@
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="122" t="s">
+    <row r="68" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B69" s="139" t="s">
         <v>310</v>
       </c>
-      <c r="C69" s="123"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="124"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="125" t="s">
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="141"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="133" t="s">
         <v>311</v>
       </c>
-      <c r="C70" s="126"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="127"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C70" s="134"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="135"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="99" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="100" t="s">
         <v>300</v>
       </c>
-      <c r="D71" s="170" t="s">
+      <c r="D71" s="204" t="s">
         <v>301</v>
       </c>
-      <c r="E71" s="171"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="119"/>
-      <c r="C72" s="120"/>
-      <c r="D72" s="120"/>
-      <c r="E72" s="121"/>
-    </row>
-    <row r="73" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="205"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="137"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="132"/>
+      <c r="E72" s="138"/>
+    </row>
+    <row r="73" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="106" t="s">
         <v>6</v>
       </c>
@@ -4658,21 +4661,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B36:E36"/>
@@ -4684,21 +4687,21 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4707,7 +4710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE9FB4A-65FE-4C27-8CFE-DCE6E645B8B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -4717,7 +4720,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
@@ -4725,69 +4728,69 @@
     <col min="5" max="5" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="184"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="186"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="187" t="s">
+    <row r="2" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="192"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="209" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="188"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="210"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32"/>
       <c r="E6" s="34"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="136"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="146" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="161"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="170" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="148"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="172"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="26"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="146" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="170" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="9"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="160"/>
+    <row r="12" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="184"/>
       <c r="C12" s="15"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
@@ -4807,119 +4810,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C068B2A5-9DCC-455B-8140-E85ECD702CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.625" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="189" t="s">
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="191"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="192" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="146" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="194"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="195" t="s">
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="196" t="s">
+      <c r="C4" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="198"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="200"/>
-    </row>
-    <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="201" t="s">
+      <c r="D4" s="152"/>
+      <c r="E4" s="153"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="149"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151"/>
+    </row>
+    <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="203" t="s">
+      <c r="D6" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="204" t="s">
+      <c r="E6" s="123" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="122" t="s">
+    <row r="8" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="125" t="s">
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="133" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="127"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="119" t="s">
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="135"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="206" t="s">
+      <c r="C11" s="125" t="s">
         <v>316</v>
       </c>
       <c r="D11" s="112" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="205" t="s">
+      <c r="E11" s="124" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="119"/>
-      <c r="C12" s="206" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="137"/>
+      <c r="C12" s="125" t="s">
         <v>317</v>
       </c>
       <c r="D12" s="112" t="s">
         <v>318</v>
       </c>
-      <c r="E12" s="205" t="s">
+      <c r="E12" s="124" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="119" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="137"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="138"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="111" t="s">
@@ -4928,13 +4931,13 @@
       <c r="D14" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="127" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="119"/>
-      <c r="C15" s="207" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="137"/>
+      <c r="C15" s="126" t="s">
         <v>323</v>
       </c>
       <c r="D15" s="112" t="s">
@@ -4944,9 +4947,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="119"/>
-      <c r="C16" s="207" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="137"/>
+      <c r="C16" s="126" t="s">
         <v>328</v>
       </c>
       <c r="D16" s="112" t="s">
@@ -4956,20 +4959,22 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="145"/>
-      <c r="C17" s="209" t="s">
+      <c r="C17" s="128" t="s">
         <v>324</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="E17" s="210" t="s">
+      <c r="E17" s="129" t="s">
         <v>330</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:B12"/>
@@ -4977,12 +4982,10 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" location="数据结构说明_版块" xr:uid="{8C587C1C-5016-4F39-9CAA-4633DF736639}"/>
+    <hyperlink ref="E14" r:id="rId1" location="数据结构说明_版块"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4990,59 +4993,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFA84ED-1173-45A9-AD9A-5FB0BDC74F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="125" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="135"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="119" t="s">
+      <c r="E4" s="158"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="137" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -5055,8 +5058,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="119"/>
+    <row r="7" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B7" s="137"/>
       <c r="C7" s="87" t="s">
         <v>246</v>
       </c>
@@ -5067,8 +5070,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="119"/>
+    <row r="8" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B8" s="137"/>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
@@ -5079,14 +5082,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="120" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="164"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="132" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -5099,8 +5102,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="120"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="132"/>
       <c r="C11" s="38" t="s">
         <v>25</v>
       </c>
@@ -5111,8 +5114,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="120"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="132"/>
       <c r="C12" s="38" t="s">
         <v>112</v>
       </c>
@@ -5123,8 +5126,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="120"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="132"/>
       <c r="C13" s="87" t="s">
         <v>249</v>
       </c>
@@ -5135,8 +5138,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="120"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="132"/>
       <c r="C14" s="38" t="s">
         <v>113</v>
       </c>
@@ -5147,8 +5150,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="120"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="132"/>
       <c r="C15" s="38" t="s">
         <v>114</v>
       </c>
@@ -5159,8 +5162,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="120"/>
+    <row r="16" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B16" s="132"/>
       <c r="C16" s="38" t="s">
         <v>115</v>
       </c>
@@ -5183,65 +5186,65 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" location="数据结构说明_列表模板" xr:uid="{93B23D4E-2C30-4E33-B1C0-59DD17F46680}"/>
-    <hyperlink ref="E12" r:id="rId2" location="数据结构说明_模板组合" xr:uid="{E7A699E5-3F11-4685-BC53-A27ECF678F78}"/>
+    <hyperlink ref="E11" r:id="rId1" location="数据结构说明_列表模板"/>
+    <hyperlink ref="E12" r:id="rId2" location="数据结构说明_模板组合"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94866F7-8811-440B-A55F-81B7D942607F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="125" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-    </row>
-    <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="142"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="119" t="s">
+      <c r="E4" s="165"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="137" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -5254,8 +5257,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="119"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="137"/>
       <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
@@ -5266,14 +5269,14 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="143"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="144"/>
-    </row>
-    <row r="9" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="119" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="166"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="167"/>
+    </row>
+    <row r="9" spans="2:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="B9" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -5286,8 +5289,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="119"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="137"/>
       <c r="C10" s="38" t="s">
         <v>138</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="145"/>
       <c r="C11" s="15" t="s">
         <v>139</v>
@@ -5310,53 +5313,53 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
       <c r="D12" s="62"/>
       <c r="E12" s="63"/>
     </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
       <c r="D13" s="62"/>
       <c r="E13" s="63"/>
     </row>
-    <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="122" t="s">
+    <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="125" t="s">
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="131" t="s">
+      <c r="D16" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="142"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="143"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="144"/>
-    </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="165"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="166"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="167"/>
+    </row>
+    <row r="18" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="40" t="s">
         <v>6</v>
       </c>
@@ -5386,66 +5389,66 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" location="数据结构说明_通用分页实体查询" display="数据融合中心 数据服务API2(更新中).docx - 数据结构说明_通用分页实体查询" xr:uid="{EE34BAF7-FACC-407B-B04F-43251FC2229B}"/>
-    <hyperlink ref="E10" r:id="rId2" location="数据结构说明_通用分页信息" xr:uid="{99C53DB9-150F-44E1-92CF-D2E0BFC62B10}"/>
+    <hyperlink ref="E9" r:id="rId1" location="数据结构说明_通用分页实体查询" display="数据融合中心 数据服务API2(更新中).docx - 数据结构说明_通用分页实体查询"/>
+    <hyperlink ref="E10" r:id="rId2" location="数据结构说明_通用分页信息"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192D92C-81A2-4423-8D46-814623BAF312}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="125" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="135"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="119" t="s">
+      <c r="E4" s="158"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="137" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -5458,8 +5461,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="119"/>
+    <row r="7" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B7" s="137"/>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
@@ -5470,14 +5473,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="139"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="141"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="119" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -5490,8 +5493,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="119"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="137"/>
       <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
@@ -5502,8 +5505,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="119"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="137"/>
       <c r="C11" s="38" t="s">
         <v>112</v>
       </c>
@@ -5514,8 +5517,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="119"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="137"/>
       <c r="C12" s="38" t="s">
         <v>113</v>
       </c>
@@ -5526,8 +5529,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="119"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="137"/>
       <c r="C13" s="38" t="s">
         <v>114</v>
       </c>
@@ -5538,8 +5541,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="119"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="137"/>
       <c r="C14" s="38" t="s">
         <v>128</v>
       </c>
@@ -5550,8 +5553,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="119"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="137"/>
       <c r="C15" s="38" t="s">
         <v>124</v>
       </c>
@@ -5562,7 +5565,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="145"/>
       <c r="C16" s="15" t="s">
         <v>115</v>
@@ -5574,58 +5577,58 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="122" t="s">
+    <row r="18" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="125" t="s">
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="127"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="146" t="s">
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="135"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="170" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="135"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="147"/>
+      <c r="E21" s="158"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="171"/>
       <c r="C22" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="149"/>
-      <c r="E22" s="150"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="148"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="172"/>
       <c r="C23" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="149"/>
-      <c r="E23" s="150"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="136"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="138"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="159"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="161"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="39" t="s">
         <v>2</v>
       </c>
@@ -5639,14 +5642,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="139"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="119" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="164"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
@@ -5659,7 +5662,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="145"/>
       <c r="C28" s="15" t="s">
         <v>115</v>
@@ -5673,116 +5676,116 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" location="数据结构说明_列表模板" xr:uid="{3041B874-BA68-4C32-AC54-231C3AEBED30}"/>
-    <hyperlink ref="E11" r:id="rId2" location="数据结构说明_模板组合" xr:uid="{909478A6-9648-4AA3-BF47-A4F2BA80B0EF}"/>
-    <hyperlink ref="E15" r:id="rId3" location="数据结构说明_节点样式" xr:uid="{C99BE251-FCEE-43DB-A16E-3ADDEBE9EB4F}"/>
-    <hyperlink ref="E27" r:id="rId4" location="数据结构说明_节点模板数据" xr:uid="{41BDCFF0-5866-44C0-81A4-31221A188AD0}"/>
-    <hyperlink ref="E14" r:id="rId5" location="数据结构说明_节点模板数据" xr:uid="{00DAC048-7C7A-46E6-9047-13CF405A2B75}"/>
+    <hyperlink ref="E10" r:id="rId1" location="数据结构说明_列表模板"/>
+    <hyperlink ref="E11" r:id="rId2" location="数据结构说明_模板组合"/>
+    <hyperlink ref="E15" r:id="rId3" location="数据结构说明_节点样式"/>
+    <hyperlink ref="E27" r:id="rId4" location="数据结构说明_节点模板数据"/>
+    <hyperlink ref="E14" r:id="rId5" location="数据结构说明_节点模板数据"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B482E8C-E5D3-44B0-8612-77665C895F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-    </row>
-    <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="158" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+    </row>
+    <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="176" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-    </row>
-    <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="119" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="137" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="159"/>
-    </row>
-    <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="119"/>
+      <c r="E4" s="177"/>
+    </row>
+    <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="137"/>
       <c r="C5" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="157" t="s">
+      <c r="D5" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="159"/>
-    </row>
-    <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="119"/>
+      <c r="E5" s="177"/>
+    </row>
+    <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="137"/>
       <c r="C6" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="175" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="159"/>
-    </row>
-    <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="119"/>
+      <c r="E6" s="177"/>
+    </row>
+    <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="137"/>
       <c r="C7" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="157" t="s">
+      <c r="D7" s="175" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="159"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="138"/>
-    </row>
-    <row r="9" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E7" s="177"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="161"/>
+    </row>
+    <row r="9" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
         <v>2</v>
       </c>
@@ -5796,14 +5799,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="143"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="144"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="119" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="166"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="167"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -5816,7 +5819,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="145"/>
       <c r="C12" s="15" t="s">
         <v>111</v>
@@ -5828,52 +5831,52 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="155" t="s">
+    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="173" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-    </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="156" t="s">
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+    </row>
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="174" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-    </row>
-    <row r="17" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="120" t="s">
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+    </row>
+    <row r="17" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="132" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="157" t="s">
+      <c r="D17" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="157"/>
-    </row>
-    <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="120"/>
+      <c r="E17" s="175"/>
+    </row>
+    <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="132"/>
       <c r="C18" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="157" t="s">
+      <c r="D18" s="175" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="157"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="120" t="s">
+      <c r="E18" s="175"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+    </row>
+    <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="132" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="88" t="s">
@@ -5886,8 +5889,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="120"/>
+    <row r="21" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="132"/>
       <c r="C21" s="88" t="s">
         <v>151</v>
       </c>
@@ -5898,8 +5901,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="120"/>
+    <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="132"/>
       <c r="C22" s="88" t="s">
         <v>152</v>
       </c>
@@ -5910,8 +5913,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="120"/>
+    <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B23" s="132"/>
       <c r="C23" s="88" t="s">
         <v>153</v>
       </c>
@@ -5922,14 +5925,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="120" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="132" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="88" t="s">
@@ -5942,8 +5945,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="120"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="132"/>
       <c r="C26" s="88" t="s">
         <v>256</v>
       </c>
@@ -5954,8 +5957,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="120"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="132"/>
       <c r="C27" s="88" t="s">
         <v>164</v>
       </c>
@@ -5966,68 +5969,68 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="61"/>
       <c r="C28" s="61"/>
       <c r="D28" s="62"/>
       <c r="E28" s="69"/>
     </row>
-    <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="155" t="s">
+    <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-    </row>
-    <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="156" t="s">
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+    </row>
+    <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="174" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-    </row>
-    <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="120" t="s">
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+    </row>
+    <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="132" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="157" t="s">
+      <c r="D32" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="157"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="120"/>
+      <c r="E32" s="175"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="132"/>
       <c r="C33" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="151" t="s">
+      <c r="D33" s="178" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="151"/>
-    </row>
-    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="120"/>
+      <c r="E33" s="178"/>
+    </row>
+    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="132"/>
       <c r="C34" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="D34" s="151" t="s">
+      <c r="D34" s="178" t="s">
         <v>173</v>
       </c>
-      <c r="E34" s="151"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="137"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-    </row>
-    <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="152" t="s">
+      <c r="E34" s="178"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="160"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
+    </row>
+    <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="179" t="s">
         <v>175</v>
       </c>
       <c r="C36" s="87" t="s">
@@ -6040,8 +6043,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="153"/>
+    <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="180"/>
       <c r="C37" s="87" t="s">
         <v>152</v>
       </c>
@@ -6052,8 +6055,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="154"/>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="181"/>
       <c r="C38" s="88" t="s">
         <v>258</v>
       </c>
@@ -6064,13 +6067,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="87" t="s">
         <v>176</v>
       </c>
@@ -6086,6 +6089,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B24:E24"/>
@@ -6096,29 +6117,11 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" location="数据结构说明_详情配置信息" xr:uid="{93407C34-B342-4F27-8863-1F82B19F301D}"/>
-    <hyperlink ref="E40" r:id="rId2" location="数据结构说明_历史" xr:uid="{4C8856F3-ADEA-41DB-B66A-26B8CEEE2E4F}"/>
+    <hyperlink ref="E11" r:id="rId1" location="数据结构说明_详情配置信息"/>
+    <hyperlink ref="E40" r:id="rId2" location="数据结构说明_历史"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -6126,87 +6129,87 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B62E978-28DC-4A79-93DF-4FAF4AB997E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-    </row>
-    <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="158" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+    </row>
+    <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="176" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-    </row>
-    <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="146" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="170" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="159"/>
-    </row>
-    <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="147"/>
+      <c r="E4" s="177"/>
+    </row>
+    <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="171"/>
       <c r="C5" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="157" t="s">
+      <c r="D5" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="159"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="147"/>
+      <c r="E5" s="177"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="171"/>
       <c r="C6" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="175" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="159"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="148"/>
+      <c r="E6" s="177"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="172"/>
       <c r="C7" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="161" t="s">
+      <c r="D7" s="182" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="162"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="138"/>
-    </row>
-    <row r="9" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="146" t="s">
+      <c r="E7" s="183"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="161"/>
+    </row>
+    <row r="9" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="170" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -6219,8 +6222,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="147"/>
+    <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="171"/>
       <c r="C10" s="75" t="s">
         <v>107</v>
       </c>
@@ -6231,8 +6234,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="147"/>
+    <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="171"/>
       <c r="C11" s="75" t="s">
         <v>208</v>
       </c>
@@ -6243,8 +6246,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="147"/>
+    <row r="12" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="171"/>
       <c r="C12" s="44" t="s">
         <v>38</v>
       </c>
@@ -6255,14 +6258,14 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="143"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="144"/>
-    </row>
-    <row r="14" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="119" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="166"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="167"/>
+    </row>
+    <row r="14" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -6275,7 +6278,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="145"/>
       <c r="C15" s="15" t="s">
         <v>3</v>
@@ -6287,42 +6290,42 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="122" t="s">
+    <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-    </row>
-    <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="158" t="s">
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="141"/>
+    </row>
+    <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="176" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="48" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="175" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="159"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="136"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="138"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="177"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="159"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="s">
         <v>2</v>
       </c>
@@ -6336,13 +6339,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="143"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="144"/>
-    </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="166"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="167"/>
+    </row>
+    <row r="24" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="47" t="s">
         <v>176</v>
       </c>
@@ -6356,42 +6359,42 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="122" t="s">
+    <row r="26" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="158" t="s">
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="176" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="127"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="135"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="157" t="s">
+      <c r="D29" s="175" t="s">
         <v>214</v>
       </c>
-      <c r="E29" s="159"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="136"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="138"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="177"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="161"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="45" t="s">
         <v>2</v>
       </c>
@@ -6405,14 +6408,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="143"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="144"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="146" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="166"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="167"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="170" t="s">
         <v>176</v>
       </c>
       <c r="C33" s="44" t="s">
@@ -6422,11 +6425,11 @@
         <v>5</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="160"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="184"/>
       <c r="C34" s="15" t="s">
         <v>216</v>
       </c>
@@ -6439,18 +6442,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B18:E18"/>
@@ -6461,6 +6452,18 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6468,67 +6471,67 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C076263-10CE-4DD3-9D3F-7FC255558537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="125" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="146" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="170" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="157" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="135"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="148"/>
+      <c r="E4" s="158"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="172"/>
       <c r="C5" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="150"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="169"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="161"/>
+    </row>
+    <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
@@ -6542,52 +6545,52 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="122" t="s">
+    <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="124"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="125" t="s">
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="146" t="s">
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="135"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="170" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="157" t="s">
         <v>182</v>
       </c>
-      <c r="E12" s="135"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="148"/>
+      <c r="E12" s="158"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="172"/>
       <c r="C13" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="150"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="163"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="164"/>
-    </row>
-    <row r="15" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E13" s="169"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="185"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="186"/>
+    </row>
+    <row r="15" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B15" s="45" t="s">
         <v>2</v>
       </c>
@@ -6601,13 +6604,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="136"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="159"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="47" t="s">
         <v>6</v>
       </c>
@@ -6621,53 +6624,53 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="122" t="s">
+    <row r="19" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="124"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="125" t="s">
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="141"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="146" t="s">
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="135"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="170" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="157" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="135"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="148"/>
+      <c r="E22" s="158"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="172"/>
       <c r="C23" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="149" t="s">
+      <c r="D23" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="150"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="163"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="164"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="146" t="s">
+      <c r="E23" s="169"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="185"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="186"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="170" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -6680,8 +6683,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="147"/>
+    <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="171"/>
       <c r="C26" s="44" t="s">
         <v>191</v>
       </c>
@@ -6692,8 +6695,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="148"/>
+    <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="172"/>
       <c r="C27" s="44" t="s">
         <v>190</v>
       </c>
@@ -6704,13 +6707,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="136"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
-    </row>
-    <row r="29" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
+    </row>
+    <row r="29" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="47" t="s">
         <v>6</v>
       </c>
@@ -6726,13 +6729,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
@@ -6741,70 +6743,71 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" location="数据结构说明_选择模板配置数据" xr:uid="{A1D7A53F-0841-4F10-920C-3AFE5A8EE4EB}"/>
+    <hyperlink ref="E7" r:id="rId1" location="数据结构说明_选择模板配置数据"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB3E66F-D173-45C2-B2C6-24F96CBE92EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="125" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="133" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="167"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="45" t="s">
         <v>2</v>
       </c>
@@ -6818,13 +6821,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="143"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="144"/>
-    </row>
-    <row r="8" spans="2:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="166"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="167"/>
+    </row>
+    <row r="8" spans="2:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="47" t="s">
         <v>6</v>
       </c>
@@ -6838,40 +6841,40 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="122" t="s">
+    <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="124"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="125" t="s">
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="166"/>
-      <c r="E13" s="167"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="136"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="138"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="188"/>
+      <c r="E13" s="189"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>2</v>
       </c>
@@ -6885,14 +6888,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="143"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="144"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="119" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="166"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="167"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="137" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -6905,8 +6908,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="119"/>
+    <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B18" s="137"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -6919,17 +6922,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/数据融合中心 数据服务API2(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API2(更新中).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="334">
   <si>
     <t>username</t>
   </si>
@@ -463,48 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/auth/token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token返回成功之后，后续的所有发送到api的请求，都要携带该返回的token。携带的方式为：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在http请求的headers中放入一个参数，参数名为“datacenter-token"，参数值为token。对于不允许修改headers的请求，可以携带一个请求参数，name为"%token%"，值为token。两种方式同时兼容，优先处理请求参数"%token%"内的token值。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-这些请求，需要对请求返回的状态码进行处理。一般情况下，状态码介于200~300之间，请求成功；状态码为403时，请求权限不足，可能是token已经超时；状态码为404、504时，页面不存在；状态码为500时，后台处理错误。
-建议封装该请求的方法。</t>
-    </r>
-  </si>
-  <si>
     <t>menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,14 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/cud/start_query/{menuId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/curd/tree/{menuId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据树形模板中的条件Criterias，需要提交的筛选条件值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,14 +544,6 @@
   </si>
   <si>
     <t>获得实体树子节点模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/curd/ask_for/{queryKey}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api2/entity/curd/start_query_rel/{menuId}/{parentEntityCode}/{nodeRelationId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,10 +581,6 @@
   </si>
   <si>
     <t>查询总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/curd/get_entities_count/{queryKey}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -895,10 +833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求的历史id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实体详情数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -991,29 +925,6 @@
   </si>
   <si>
     <t>需要加载的实体code，用逗号分开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/curd/select_config/{validateSign:user|\\d+}/{fieldGroupId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/curd/query_select_entities/{validateSign:user|\\d+}/{groupId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/curd/load_entities/{validateSign:user|\\d+}/{groupId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/curd/history/{validateSign:\\d+}/{code}/{pageNo}
-/api2/entity/curd/history/{validateSign:user}/*/{pageNo}
-/api2/entity/curd/history/{validateSign:user}/{pageNo}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/curd/detail/{validateSign:\\d+}/{code},
-/api2/entity/curd/detail/{validateSign:user}/*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1077,10 +988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/curd/remove/{menuId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>要移除的实体的code，多个用逗号分隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1093,10 +1000,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/curd/do_action/{menuId}/{actionId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sucsCount</t>
   </si>
   <si>
@@ -1124,34 +1027,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/meta/dict/field_options</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询完成时，参数中的fieldIds都会返回字段对应的枚举数组，optionsMap的key为fieldId，value为枚举的数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/meta/dict/cas_ops/{optGroupId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看当前会话中正在执行的导出进程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/export/session_progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>queryKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/export/start/{menuId}/{queryKey}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列表查询返回的key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1172,10 +1059,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/export/status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uuid</t>
   </si>
   <si>
@@ -1199,14 +1082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/export/download/{uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/export/work/{uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>versionCode</t>
   </si>
   <si>
@@ -1242,25 +1117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/meta/tmpl/dtmpl_config/{contextType:normal}/{validateSign:user|\\d+}/*
-/api2/meta/tmpl/dtmpl_config/{contextType:rabc}/{validateSign:user|\\d+}/{fieldGroupId}
-/api2/meta/tmpl/dtmpl_config/{contextType:node}/{validateSign:user|\\d+}/{nodeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/curd/save/{contextType:normal}/{validateSign:user|\\d+}
-/api2/entity/curd/save/{contextType:normal}/{validateSign:user|\\d+}/*
-/api2/entity/curd/save/{contextType:rabc}/{validateSign:user|\\d+}/{fieldGroupId}
-/api2/entity/curd/save/{contextType:node}/{validateSign:user|\\d+}/{nodeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/export/detail/{validateSign:\\d+}/{entityCode}
-/api2/entity/export/detail/{validateSign:user}
-/api2/entity/export/detail/{validateSign:user}/*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>versionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1333,18 +1189,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/import/start/{menuId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导入进程查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/import/status{uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调用开始导入接口后返回的uuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1397,10 +1245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/import/dict/{menuId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fieldDictionary</t>
   </si>
   <si>
@@ -1408,10 +1252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/import/tmpls/{menuId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tmpls</t>
   </si>
   <si>
@@ -1427,10 +1267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/import/tmpl/{menuId}/{tmplId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tmplId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1448,10 +1284,6 @@
   </si>
   <si>
     <t>保存导入模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/import/save_tmpl/{menuId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1476,10 +1308,6 @@
   </si>
   <si>
     <t>下载导入模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api2/entity/import/t/download_tmpl/{tmplId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1546,10 +1374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/meta/menu/get_blocks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>blockId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1611,6 +1435,256 @@
   </si>
   <si>
     <t>执行成功返回suc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">token返回成功之后，后续的所有发送到api的请求，都要携带该返回的token。携带的方式为：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在http请求的headers中放入一个参数，参数名为“hydrocarbon-token"，参数值为token。对于不允许修改headers的请求，可以携带一个请求参数，name为"%token%"，值为token。两种方式同时兼容，优先处理请求参数"%token%"内的token值。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+这些请求，需要对请求返回的状态码进行处理。一般情况下，状态码介于200~300之间，请求成功；状态码为403时，请求权限不足，可能是token已经超时；状态码为404、504时，页面不存在；状态码为500时，后台处理错误。
+建议封装该请求的方法。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/meta/tmpl/dtmpl_config/{contextType:normal}/{validateSign:user|\\d+}/*
+/api2/meta/tmpl/dtmpl_config/{contextType:rabc}/{validateSign:user|\\d+}/{fieldGroupId}
+/api2/meta/tmpl/dtmpl_config/{contextType:node}/{validateSign:user|\\d+}/{nodeId}
+-&gt;
+get /api2/entity/dtmpl/{contextType:normal}/{validateSign:user|\\d+}/*
+get /api2/entity/dtmpl/{contextType:rabc}/{validateSign:user|\\d+}/{fieldGroupId}
+get /api2/entity/dtmpl/{contextType:node}/{validateSign:user|\\d+}/{nodeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">请求的历史id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>???</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/meta/dict/field_options
+-&gt;
+get /api2/meta/dict/field_options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/auth/token-&gt;post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/meta/menu/get_blocks 
+-&gt;
+get /hydrocarbon/meta/menu/blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/entity/cud/start_query/{menuId} -&gt; get /hydrocarbon/entity/entities/tmpl/{menuId} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/entity/curd/get_entities_count/{queryKey} -&gt;get /hydrocarbon/entity/entities/count/{queryKey} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/entity/curd/ask_for/{queryKey} -&gt; get /hydrocarbon/entity/entities/detail/{queryKey} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/tree/{menuId}-&gt; get /hydrocarbon/entity/tree/root/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">api2/entity/curd/start_query_rel/{menuId}/{parentEntityCode}/{nodeRelationId} 
+-&gt;/hydrocarbon/entity/tree/node/{menuId}/{parentEntityCode}/{nodeRelationId} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/history/{validateSign:\\d+}/{code}/{pageNo}
+/api2/entity/curd/history/{validateSign:user}/*/{pageNo}
+/api2/entity/curd/history/{validateSign:user}/{pageNo}
+-&gt;
+get /hydrocarbon/entity/history/{validateSign:\\d+}/{code}/{pageNo}
+get /hydrocarbon/entity/history/user/{pageNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/detail/{validateSign:\\d+}/{code},
+/api2/entity/curd/detail/{validateSign:user}/*
+-&gt;
+get /hydrocarbon/entity/detail/{validateSign:\\d+}/{code},
+get /hydrocarbon/entity/detail/{validateSign:user}/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/remove/{menuId}
+-&gt;
+delete /hydrocarbon/entity/detail/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/save/{contextType:normal}/{validateSign:user|\\d+}
+/api2/entity/curd/save/{contextType:normal}/{validateSign:user|\\d+}/*
+/api2/entity/curd/save/{contextType:rabc}/{validateSign:user|\\d+}/{fieldGroupId}
+/api2/entity/curd/save/{contextType:node}/{validateSign:user|\\d+}/{nodeId}
+-&gt;
+post /hydrocarbon/entity/detail/{contextType:normal}/{validateSign:user|\\d+}
+post /hydrocarbon/entity/detail/{contextType:normal}/{validateSign:user|\\d+}/*
+post  /hydrocarbon/entity/detail/{contextType:rabc}/{validateSign:user|\\d+}/{fieldGroupId}
+post /hydrocarbon/entity/detail/{contextType:node}/{validateSign:user|\\d+}/{nodeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/do_action/{menuId}/{actionId}
+-&gt;
+post /hydrocarbon/entity/action/{menuId}/{actionId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/select_config/{validateSign:user|\\d+}/{fieldGroupId}
+-&gt;
+get /hydrocarbon/entity/select_tmpl/{validateSign:user|\\d+}/{fieldGroupId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/query_select_entities/{validateSign:user|\\d+}/{groupId}
+-&gt;
+get /hydrocarbon/entity/select_entities/{validateSign:user|\\d+}/{groupId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/load_entities/{validateSign:user|\\d+}/{groupId}
+-&gt;
+get /hydrocarbon/entity/selected_entities/detail/{validateSign:user|\\d+}/{groupId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/meta/dict/cas_ops/{optGroupId} 
+-&gt;
+get /hydrocarbon/meta/dict/cas_ops/{optGroupId} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/export/detail/{validateSign:\\d+}/{entityCode}
+/api2/entity/export/detail/{validateSign:user}
+/api2/entity/export/detail/{validateSign:user}/*
+-&gt;
+/hydrocarbon/entity/export/detail/{validateSign:\\d+}/{entityCode}
+/hydrocarbon/entity/export/detail/{validateSign:user}
+/hydrocarbon/entity/export/detail/{validateSign:user}/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/export/download/{uuid}
+-&gt;
+/hydrocarbon/entity/export/download/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/export/work/{uuid}
+-&gt;
+/hydrocarbon/entity/export/work/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/entity/export/session_progress 
+-&gt; 
+get /hydrocarbon/entity/export/session_progress </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/entity/export/start/{menuId}/{queryKey} 
+-&gt; 
+get /hydrocarbon/entity/export/start/{menuId}/{queryKey} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/entity/export/status 
+-&gt;
+ get  /hydrocarbon/entity/export/status </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/t/download_tmpl/{tmplId}
+-&gt;
+get /hydrocarbon/entity/import/excel/{tmplId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/save_tmpl/{menuId}
+-&gt;
+put /hydrocarbon/entity/import/tmpl/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/tmpl/{menuId}/{tmplId}
+-&gt;
+ get /hydrocarbon/entity/import/tmpl/{menuId}/{tmplId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/entity/import/tmpls/{menuId} 
+-&gt; 
+get  /hydrocarbon/entity/import/tmpls/{menuId} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/entity/import/dict/{menuId} 
+-&gt; 
+get /hydrocarbon/entity/import/dict/{menuId} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/entity/import/status/{uuid} 
+-&gt; 
+get /hydrocarbon/entity/import/status/{uuid} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/start/{menuId}
+-&gt;
+/hydrocarbon/entity/import/start/{menuId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,7 +1692,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1812,6 +1886,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2243,7 +2332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2803,9 +2892,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2856,6 +2942,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3146,7 +3238,7 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G9"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3170,13 +3262,13 @@
     </row>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="133" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
       <c r="E3" s="135"/>
       <c r="G3" s="130" t="s">
-        <v>110</v>
+        <v>299</v>
       </c>
       <c r="H3" s="52"/>
     </row>
@@ -3261,7 +3353,7 @@
     <row r="10" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="139" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C11" s="140"/>
       <c r="D11" s="140"/>
@@ -3269,7 +3361,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="133" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C12" s="134"/>
       <c r="D12" s="134"/>
@@ -3286,13 +3378,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D14" s="80" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -3340,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E34"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3355,15 +3447,15 @@
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="139" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C2" s="140"/>
       <c r="D2" s="140"/>
       <c r="E2" s="141"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="133" t="s">
-        <v>227</v>
+    <row r="3" spans="2:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="176" t="s">
+        <v>324</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -3404,9 +3496,9 @@
       <c r="D8" s="140"/>
       <c r="E8" s="141"/>
     </row>
-    <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="133" t="s">
-        <v>229</v>
+    <row r="9" spans="2:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="176" t="s">
+        <v>325</v>
       </c>
       <c r="C9" s="134"/>
       <c r="D9" s="134"/>
@@ -3419,20 +3511,20 @@
       <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="202" t="s">
+      <c r="D10" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="203"/>
+      <c r="E10" s="202"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="172"/>
       <c r="C11" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="204" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="205"/>
+        <v>210</v>
+      </c>
+      <c r="D11" s="203" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="204"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="159"/>
@@ -3451,7 +3543,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
@@ -3499,19 +3591,19 @@
         <v>54</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="137"/>
       <c r="C18" s="44" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -3543,9 +3635,9 @@
       <c r="D23" s="140"/>
       <c r="E23" s="141"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="133" t="s">
-        <v>235</v>
+    <row r="24" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="176" t="s">
+        <v>326</v>
       </c>
       <c r="C24" s="134"/>
       <c r="D24" s="134"/>
@@ -3556,13 +3648,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D25" s="107" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E25" s="113" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
@@ -3685,9 +3777,9 @@
       <c r="D37" s="140"/>
       <c r="E37" s="141"/>
     </row>
-    <row r="38" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="176" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="C38" s="134"/>
       <c r="D38" s="134"/>
@@ -3699,18 +3791,18 @@
         <v>16</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="202" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="203"/>
+      <c r="E39" s="202"/>
       <c r="F39" s="81"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="137"/>
       <c r="C40" s="44" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D40" s="157" t="s">
         <v>88</v>
@@ -3743,39 +3835,39 @@
     <row r="43" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B43" s="137"/>
       <c r="C43" s="44" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F43" s="86"/>
     </row>
     <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="137"/>
       <c r="C44" s="44" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F44" s="86"/>
     </row>
     <row r="45" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B45" s="137"/>
       <c r="C45" s="44" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F45" s="81"/>
     </row>
@@ -3831,21 +3923,21 @@
       <c r="D51" s="191"/>
       <c r="E51" s="192"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="193" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="194"/>
-      <c r="D52" s="194"/>
-      <c r="E52" s="195"/>
+    <row r="52" spans="2:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="211" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" s="193"/>
+      <c r="D52" s="193"/>
+      <c r="E52" s="194"/>
     </row>
     <row r="53" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="199" t="s">
-        <v>261</v>
-      </c>
-      <c r="C53" s="200"/>
-      <c r="D53" s="200"/>
-      <c r="E53" s="201"/>
+      <c r="B53" s="198" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="199"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="200"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="17" t="s">
@@ -3871,11 +3963,11 @@
       <c r="B56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="196" t="s">
+      <c r="C56" s="195" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="197"/>
-      <c r="E56" s="198"/>
+      <c r="D56" s="196"/>
+      <c r="E56" s="197"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
@@ -3892,13 +3984,13 @@
       <c r="D59" s="191"/>
       <c r="E59" s="192"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="193" t="s">
-        <v>243</v>
-      </c>
-      <c r="C60" s="194"/>
-      <c r="D60" s="194"/>
-      <c r="E60" s="195"/>
+    <row r="60" spans="2:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="211" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" s="193"/>
+      <c r="D60" s="193"/>
+      <c r="E60" s="194"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="17" t="s">
@@ -4046,8 +4138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4061,15 +4153,15 @@
     <row r="2" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="139" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
       <c r="E3" s="141"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="133" t="s">
-        <v>274</v>
+    <row r="4" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="176" t="s">
+        <v>333</v>
       </c>
       <c r="C4" s="134"/>
       <c r="D4" s="134"/>
@@ -4082,10 +4174,10 @@
       <c r="C5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="202" t="s">
+      <c r="D5" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="203"/>
+      <c r="E5" s="202"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="137"/>
@@ -4098,30 +4190,30 @@
         <v>55</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D7" s="175" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="E7" s="177"/>
     </row>
     <row r="8" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="137"/>
       <c r="C8" s="95" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="D8" s="175" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="E8" s="177"/>
     </row>
     <row r="9" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="137"/>
       <c r="C9" s="95" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="D9" s="175" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E9" s="177"/>
     </row>
@@ -4148,39 +4240,39 @@
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="137"/>
       <c r="C12" s="95" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="145"/>
       <c r="C13" s="109" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="139" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C16" s="140"/>
       <c r="D16" s="140"/>
       <c r="E16" s="141"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="133" t="s">
-        <v>276</v>
+    <row r="17" spans="2:5" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="176" t="s">
+        <v>332</v>
       </c>
       <c r="C17" s="134"/>
       <c r="D17" s="134"/>
@@ -4193,10 +4285,10 @@
       <c r="C18" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="202" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="203"/>
+      <c r="D18" s="201" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="202"/>
     </row>
     <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="137"/>
@@ -4209,17 +4301,17 @@
         <v>55</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D20" s="175" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E20" s="177"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="137"/>
       <c r="C21" s="100" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D21" s="175"/>
       <c r="E21" s="177"/>
@@ -4227,7 +4319,7 @@
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="137"/>
       <c r="C22" s="100" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D22" s="175"/>
       <c r="E22" s="177"/>
@@ -4249,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -4327,51 +4419,51 @@
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="171"/>
       <c r="C31" s="100" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D31" s="107" t="s">
         <v>97</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="171"/>
       <c r="C32" s="100" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="D32" s="107" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="115" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="184"/>
       <c r="C33" s="116" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E33" s="117" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="139" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C36" s="140"/>
       <c r="D36" s="140"/>
       <c r="E36" s="141"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="133" t="s">
-        <v>291</v>
+    <row r="37" spans="2:5" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="176" t="s">
+        <v>331</v>
       </c>
       <c r="C37" s="134"/>
       <c r="D37" s="134"/>
@@ -4384,10 +4476,10 @@
       <c r="C38" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="202" t="s">
+      <c r="D38" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="203"/>
+      <c r="E38" s="202"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="137"/>
@@ -4400,27 +4492,27 @@
         <v>6</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="118" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B43" s="139" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C43" s="140"/>
       <c r="D43" s="140"/>
       <c r="E43" s="141"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="133" t="s">
-        <v>294</v>
+    <row r="44" spans="2:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="176" t="s">
+        <v>330</v>
       </c>
       <c r="C44" s="134"/>
       <c r="D44" s="134"/>
@@ -4433,10 +4525,10 @@
       <c r="C45" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="202" t="s">
+      <c r="D45" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="203"/>
+      <c r="E45" s="202"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="137"/>
@@ -4449,27 +4541,27 @@
         <v>6</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E47" s="118" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" s="139" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C50" s="140"/>
       <c r="D50" s="140"/>
       <c r="E50" s="141"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="133" t="s">
-        <v>299</v>
+    <row r="51" spans="2:5" ht="47" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="176" t="s">
+        <v>329</v>
       </c>
       <c r="C51" s="134"/>
       <c r="D51" s="134"/>
@@ -4482,20 +4574,20 @@
       <c r="C52" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="202" t="s">
+      <c r="D52" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="203"/>
+      <c r="E52" s="202"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="172"/>
       <c r="C53" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="D53" s="204" t="s">
-        <v>301</v>
-      </c>
-      <c r="E53" s="205"/>
+        <v>270</v>
+      </c>
+      <c r="D53" s="203" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" s="204"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="137"/>
@@ -4508,27 +4600,27 @@
         <v>6</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="118" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" s="139" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C58" s="140"/>
       <c r="D58" s="140"/>
       <c r="E58" s="141"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="133" t="s">
-        <v>305</v>
+    <row r="59" spans="2:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="176" t="s">
+        <v>328</v>
       </c>
       <c r="C59" s="134"/>
       <c r="D59" s="134"/>
@@ -4541,10 +4633,10 @@
       <c r="C60" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="202" t="s">
+      <c r="D60" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="203"/>
+      <c r="E60" s="202"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="137"/>
@@ -4554,40 +4646,40 @@
     </row>
     <row r="62" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="137" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>97</v>
       </c>
       <c r="E62" s="118" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="137"/>
       <c r="C63" s="15" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="118" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="117.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="137"/>
       <c r="C64" s="15" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="118" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -4601,27 +4693,27 @@
         <v>6</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E66" s="118" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="69" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B69" s="139" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="C69" s="140"/>
       <c r="D69" s="140"/>
       <c r="E69" s="141"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="133" t="s">
-        <v>311</v>
+    <row r="70" spans="2:5" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="176" t="s">
+        <v>327</v>
       </c>
       <c r="C70" s="134"/>
       <c r="D70" s="134"/>
@@ -4632,12 +4724,12 @@
         <v>16</v>
       </c>
       <c r="C71" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="D71" s="204" t="s">
-        <v>301</v>
-      </c>
-      <c r="E71" s="205"/>
+        <v>270</v>
+      </c>
+      <c r="D71" s="203" t="s">
+        <v>271</v>
+      </c>
+      <c r="E71" s="204"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="137"/>
@@ -4650,13 +4742,13 @@
         <v>6</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E73" s="118" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4736,13 +4828,13 @@
       <c r="E3" s="192"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="207"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="209" t="s">
+      <c r="B5" s="208" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="28"/>
@@ -4750,7 +4842,7 @@
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="210"/>
+      <c r="B6" s="209"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32"/>
       <c r="E6" s="34"/>
@@ -4814,7 +4906,7 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4836,7 +4928,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="146" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C3" s="147"/>
       <c r="D3" s="147"/>
@@ -4869,7 +4961,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="123" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4881,9 +4973,9 @@
       <c r="D9" s="140"/>
       <c r="E9" s="141"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
-        <v>315</v>
+    <row r="10" spans="2:5" ht="47" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="176" t="s">
+        <v>306</v>
       </c>
       <c r="C10" s="134"/>
       <c r="D10" s="134"/>
@@ -4894,25 +4986,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="D11" s="112" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="E11" s="124" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="137"/>
       <c r="C12" s="125" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="D12" s="112" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="E12" s="124" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
@@ -4926,62 +5018,62 @@
         <v>6</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="D14" s="112" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E14" s="127" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="137"/>
       <c r="C15" s="126" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="E15" s="115" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="137"/>
       <c r="C16" s="126" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="D16" s="112" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="E16" s="115" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="145"/>
       <c r="C17" s="128" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="E17" s="129" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4997,7 +5089,7 @@
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5012,7 +5104,7 @@
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="139" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" s="140"/>
       <c r="D2" s="140"/>
@@ -5020,7 +5112,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="133" t="s">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -5061,13 +5153,13 @@
     <row r="7" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B7" s="137"/>
       <c r="C7" s="87" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5093,13 +5185,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -5117,61 +5209,61 @@
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="132"/>
       <c r="C12" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="132"/>
       <c r="C13" s="87" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="132"/>
       <c r="C14" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="132"/>
       <c r="C15" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B16" s="132"/>
       <c r="C16" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5197,21 +5289,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="139" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C2" s="140"/>
       <c r="D2" s="140"/>
@@ -5219,7 +5311,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="133" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -5230,10 +5322,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="130" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E4" s="165"/>
     </row>
@@ -5266,7 +5358,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -5286,31 +5378,31 @@
         <v>15</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="137"/>
       <c r="C10" s="38" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="145"/>
       <c r="C11" s="15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D11" s="59" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -5327,7 +5419,7 @@
     </row>
     <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="139" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C14" s="140"/>
       <c r="D14" s="140"/>
@@ -5335,7 +5427,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="133" t="s">
-        <v>145</v>
+        <v>308</v>
       </c>
       <c r="C15" s="134"/>
       <c r="D15" s="134"/>
@@ -5346,10 +5438,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="130" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E16" s="165"/>
     </row>
@@ -5364,13 +5456,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D18" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5400,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5415,7 +5507,7 @@
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="139" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C2" s="140"/>
       <c r="D2" s="140"/>
@@ -5423,7 +5515,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="133" t="s">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -5470,7 +5562,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -5484,13 +5576,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -5508,87 +5600,87 @@
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="137"/>
       <c r="C11" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="137"/>
       <c r="C12" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="137"/>
       <c r="C13" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="137"/>
       <c r="C14" s="38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="137"/>
       <c r="C15" s="38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="145"/>
       <c r="C16" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="139" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19" s="140"/>
       <c r="D19" s="140"/>
       <c r="E19" s="141"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="133" t="s">
-        <v>135</v>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="176" t="s">
+        <v>311</v>
       </c>
       <c r="C20" s="134"/>
       <c r="D20" s="134"/>
@@ -5609,7 +5701,7 @@
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="171"/>
       <c r="C22" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D22" s="168"/>
       <c r="E22" s="169"/>
@@ -5617,7 +5709,7 @@
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="172"/>
       <c r="C23" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D23" s="168"/>
       <c r="E23" s="169"/>
@@ -5653,25 +5745,25 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="145"/>
       <c r="C28" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5707,10 +5799,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E40"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5723,15 +5815,15 @@
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="139" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C2" s="140"/>
       <c r="D2" s="140"/>
       <c r="E2" s="141"/>
     </row>
-    <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="176" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -5739,43 +5831,43 @@
     </row>
     <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="137" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D4" s="175" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E4" s="177"/>
     </row>
     <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="137"/>
       <c r="C5" s="38" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D5" s="175" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E5" s="177"/>
     </row>
     <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="137"/>
       <c r="C6" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="175" t="s">
         <v>151</v>
-      </c>
-      <c r="D6" s="175" t="s">
-        <v>158</v>
       </c>
       <c r="E6" s="177"/>
     </row>
     <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137"/>
       <c r="C7" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="175" t="s">
         <v>152</v>
-      </c>
-      <c r="D7" s="175" t="s">
-        <v>159</v>
       </c>
       <c r="E7" s="177"/>
     </row>
@@ -5790,13 +5882,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -5810,38 +5902,38 @@
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="145"/>
       <c r="C12" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="173" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C15" s="173"/>
       <c r="D15" s="173"/>
       <c r="E15" s="173"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="58" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="174" t="s">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="C16" s="134"/>
       <c r="D16" s="134"/>
@@ -5852,10 +5944,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D17" s="175" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E17" s="175"/>
     </row>
@@ -5865,7 +5957,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="175" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E18" s="175"/>
     </row>
@@ -5880,49 +5972,49 @@
         <v>2</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="132"/>
       <c r="C21" s="88" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D21" s="89" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E21" s="91" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="132"/>
       <c r="C22" s="88" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B23" s="132"/>
       <c r="C23" s="88" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E23" s="91" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -5942,31 +6034,31 @@
         <v>27</v>
       </c>
       <c r="E25" s="90" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="132"/>
       <c r="C26" s="88" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D26" s="89" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="92" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="132"/>
       <c r="C27" s="88" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D27" s="89" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E27" s="93" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
@@ -5977,15 +6069,15 @@
     </row>
     <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="173" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C30" s="173"/>
       <c r="D30" s="173"/>
       <c r="E30" s="173"/>
     </row>
-    <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="174" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="C31" s="134"/>
       <c r="D31" s="134"/>
@@ -5996,99 +6088,105 @@
         <v>16</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D32" s="175" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E32" s="175"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="132"/>
       <c r="C33" s="87" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="178" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E33" s="178"/>
     </row>
-    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="132"/>
       <c r="C34" s="87" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D34" s="178" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E34" s="178"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="160"/>
       <c r="C35" s="160"/>
       <c r="D35" s="160"/>
       <c r="E35" s="160"/>
     </row>
-    <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="179" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C36" s="87" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D36" s="89" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="G36" s="210" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="180"/>
       <c r="C37" s="87" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D37" s="89" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="G37" s="210"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="181"/>
       <c r="C38" s="88" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="D38" s="89" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E38" s="94" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="G38" s="210"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="136"/>
       <c r="C39" s="136"/>
       <c r="D39" s="136"/>
       <c r="E39" s="136"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="87" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C40" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E40" s="90" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="G36:G38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B35:E35"/>
@@ -6132,8 +6230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6146,15 +6244,15 @@
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="139" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C2" s="140"/>
       <c r="D2" s="140"/>
       <c r="E2" s="141"/>
     </row>
-    <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="111.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="176" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -6165,40 +6263,40 @@
         <v>16</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D4" s="175" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E4" s="177"/>
     </row>
     <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="171"/>
       <c r="C5" s="44" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D5" s="175" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E5" s="177"/>
     </row>
     <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="171"/>
       <c r="C6" s="44" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D6" s="175" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E6" s="177"/>
     </row>
     <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="172"/>
       <c r="C7" s="44" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D7" s="182" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E7" s="183"/>
     </row>
@@ -6237,13 +6335,13 @@
     <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="171"/>
       <c r="C11" s="75" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6255,7 +6353,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
@@ -6275,7 +6373,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6287,7 +6385,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>169</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6299,9 +6397,9 @@
       <c r="D18" s="140"/>
       <c r="E18" s="141"/>
     </row>
-    <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="176" t="s">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="C19" s="134"/>
       <c r="D19" s="134"/>
@@ -6315,7 +6413,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="175" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E20" s="177"/>
     </row>
@@ -6336,7 +6434,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -6347,7 +6445,7 @@
     </row>
     <row r="24" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="47" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
@@ -6356,7 +6454,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6368,9 +6466,9 @@
       <c r="D27" s="140"/>
       <c r="E27" s="141"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="176" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="C28" s="134"/>
       <c r="D28" s="134"/>
@@ -6384,7 +6482,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="175" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E29" s="177"/>
     </row>
@@ -6405,7 +6503,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
@@ -6416,7 +6514,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="170" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C33" s="44" t="s">
         <v>3</v>
@@ -6425,19 +6523,19 @@
         <v>5</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="184"/>
       <c r="C34" s="15" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6474,8 +6572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6489,15 +6587,15 @@
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="139" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C2" s="140"/>
       <c r="D2" s="140"/>
       <c r="E2" s="141"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="133" t="s">
-        <v>194</v>
+    <row r="3" spans="2:5" ht="44" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="176" t="s">
+        <v>317</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -6508,20 +6606,20 @@
         <v>16</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D4" s="157" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E4" s="158"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="172"/>
       <c r="C5" s="51" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D5" s="168" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E5" s="169"/>
     </row>
@@ -6536,27 +6634,27 @@
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="139" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C10" s="140"/>
       <c r="D10" s="140"/>
       <c r="E10" s="141"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="133" t="s">
-        <v>195</v>
+    <row r="11" spans="2:5" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="176" t="s">
+        <v>318</v>
       </c>
       <c r="C11" s="134"/>
       <c r="D11" s="134"/>
@@ -6567,20 +6665,20 @@
         <v>16</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D12" s="157" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E12" s="158"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="172"/>
       <c r="C13" s="51" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D13" s="168" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E13" s="169"/>
     </row>
@@ -6601,7 +6699,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -6615,27 +6713,27 @@
         <v>6</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="139" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C20" s="140"/>
       <c r="D20" s="140"/>
       <c r="E20" s="141"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="133" t="s">
-        <v>196</v>
+    <row r="21" spans="2:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="176" t="s">
+        <v>319</v>
       </c>
       <c r="C21" s="134"/>
       <c r="D21" s="134"/>
@@ -6646,20 +6744,20 @@
         <v>16</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D22" s="157" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E22" s="158"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="172"/>
       <c r="C23" s="51" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D23" s="168" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E23" s="169"/>
     </row>
@@ -6680,31 +6778,31 @@
         <v>43</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="171"/>
       <c r="C26" s="44" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="172"/>
       <c r="C27" s="44" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E27" s="73" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
@@ -6721,10 +6819,10 @@
         <v>26</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6763,7 +6861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
@@ -6783,9 +6881,9 @@
       <c r="D2" s="140"/>
       <c r="E2" s="141"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="133" t="s">
-        <v>223</v>
+    <row r="3" spans="2:5" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="176" t="s">
+        <v>304</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -6838,7 +6936,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6850,9 +6948,9 @@
       <c r="D11" s="140"/>
       <c r="E11" s="141"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="133" t="s">
-        <v>225</v>
+    <row r="12" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="176" t="s">
+        <v>320</v>
       </c>
       <c r="C12" s="134"/>
       <c r="D12" s="134"/>
